--- a/Test cases table samples.xlsx
+++ b/Test cases table samples.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="810" windowWidth="28215" windowHeight="11925"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestCases" sheetId="1" r:id="rId4"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>Title</t>
   </si>
@@ -32,25 +35,6 @@
   </si>
   <si>
     <t>Test the login by using correct credentials.</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">1. Go to </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">site.com/login
-</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>2. Add correct user/pass
-3. Observe if user can login</t>
-    </r>
   </si>
   <si>
     <t>User should be able to login,</t>
@@ -64,12 +48,6 @@
   </si>
   <si>
     <t>Test the login by using wrong credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to site.com/login
-2. Add wrong / random user &amp; pass
-3 Observe if user can login
-</t>
   </si>
   <si>
     <t>User should not be able to login</t>
@@ -144,13 +122,6 @@
   </si>
   <si>
     <t>Test the search bar if it auto compleats a word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to emag.ro
-2. Click on the search bar
-3. Partially write a word
-4. Observe what happens 
-</t>
   </si>
   <si>
     <t>The user should see the word completed in grey in the search</t>
@@ -180,13 +151,6 @@
   </si>
   <si>
     <t>Test the search bar with random special characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to emag.ro
-2. Click on the search bar
-3. Input the word
-4. Observe what happens
-</t>
   </si>
   <si>
     <t>The user shouldn't see the dropdown menu therefore 
@@ -251,38 +215,325 @@
     <t>masina de spalat
 masina_de_spalat</t>
   </si>
+  <si>
+    <t>User resignation</t>
+  </si>
+  <si>
+    <t>Verify that a new user can successfully register on the website.</t>
+  </si>
+  <si>
+    <t>1, Navigate to the registration page.
+2. Fill in the required registration fields with valid data.
+3. Click on the "register" button.</t>
+  </si>
+  <si>
+    <t>The user should be registered successfully and redirected to the homepage.</t>
+  </si>
+  <si>
+    <t>Valid user registration details (name, email, password)</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>Ensure that users can add products to their shopping cart.</t>
+  </si>
+  <si>
+    <t>1. Browse the product catalog.
+2. Click on the "Add to cart" button for a desired product.</t>
+  </si>
+  <si>
+    <t>The product should be added to the user's shopping cart.</t>
+  </si>
+  <si>
+    <t>Cart Total Calculation</t>
+  </si>
+  <si>
+    <t>Verify that the total amount in the shopping cart is calculated correctly.</t>
+  </si>
+  <si>
+    <t>1. Add multiple products to the shopping cart.
+2. Navigate to the shopping cart page</t>
+  </si>
+  <si>
+    <t>The total amount displayed should be the sum of the prices of all the products in the cart.</t>
+  </si>
+  <si>
+    <t>Checkout Process</t>
+  </si>
+  <si>
+    <t>Test the checkout process and ensure a smooth transaction.</t>
+  </si>
+  <si>
+    <t>1. Go to the shopping cart page.
+2. Click on the "checkout" button.
+3. Fill in the required shipping and payment details.
+4. Click on the "Place order" button.</t>
+  </si>
+  <si>
+    <t>The order should be placed successfully, and the user should receive an order confirmation.</t>
+  </si>
+  <si>
+    <t>Valid shipping and payment details.</t>
+  </si>
+  <si>
+    <t>Product Reviews</t>
+  </si>
+  <si>
+    <t>Check the functionality of leaving reviews for products.</t>
+  </si>
+  <si>
+    <t>1. Find a product that allows customer reviews.
+2. Click on the product to view its details.
+3. Scroll down to the review section.
+4. Leave a review by filling in the required fields.
+5. Click on "submit" button.</t>
+  </si>
+  <si>
+    <t>The review should be submitted successfully and displayed on the product page.</t>
+  </si>
+  <si>
+    <t>Discount Codes</t>
+  </si>
+  <si>
+    <t>Test the application of discount codes during the checkout process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The discount should be applied, and the order total should reflect the discounted price.
+</t>
+  </si>
+  <si>
+    <t>A valid discount code.</t>
+  </si>
+  <si>
+    <t>Customer Support Contact</t>
+  </si>
+  <si>
+    <t>Test the functionality of the customer support contact feature.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the contact page.
+2. Fill the required fields.
+3. Click on the "submit" button.</t>
+  </si>
+  <si>
+    <t>The message should be sent successfully to the customer support team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Balance
+</t>
+  </si>
+  <si>
+    <t>Validate that the account balance is displayed accurately on the banking web app.</t>
+  </si>
+  <si>
+    <t>1. Add products to the shopping cart.
+2. Proceed to checkout.
+3. Enter a valid discount code in the designated field.
+4. Click on the "Apply" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The account balance should be displayed correctly, reflecting the actual available funds.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User account with a specific balance.
+</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that users can successfully transfer funds between accounts.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the banking web app using valid credentials.
+2. Navigate to the funds transfer section.
+3. Enter the necessary details such as recipient account number and transfer amount.
+4. Click on the "Transfer" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specified amount should be deducted from the user's account and transferred to the recipient account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid recipient account details and transfer amount.
+</t>
+  </si>
+  <si>
+    <t>Transaction History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the transaction history is displayed accurately on the banking web app.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the banking web app using valid credentials.
+2. Navigate to the transaction history section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The transaction history should be displayed, listing all the recent transactions with details like date, time, amount, and transaction type.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User account with recent transactions.
+</t>
+  </si>
+  <si>
+    <t>Account Statement Download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the functionality of downloading an account statement in a specific format.
+</t>
+  </si>
+  <si>
+    <t>1. Login to the banking web app using valid credentials.
+2. Go to the account statement or download section.
+3. Select the desired statement format (e.g., PDF, CSV).
+4. Click on the "Download" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The account statement should be downloaded in the specified format and saved locally.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User account with transaction history for a specific period.
+</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users can successfully make bill payments through the banking web app.
+</t>
+  </si>
+  <si>
+    <t>1.Login to the banking web app using valid credentials.
+2. Navigate to the bill payment section.
+3. Enter the required details such as payee information, bill amount, and payment date.
+4. Click on the "Pay" or "Submit" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specified bill amount should be deducted from the user's account and the payment should be successfully processed.
+</t>
+  </si>
+  <si>
+    <t>Currency Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the accuracy of currency conversion calculations in the banking web app.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login to the banking web app using valid credentials.
+2. Go to the currency conversion section.
+3. Enter a specific amount in one currency and select the desired target currency.
+4. Initiate the currency conversion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The currency conversion should be accurate, and the converted amount should be displayed correctly.
+</t>
+  </si>
+  <si>
+    <t>1. Go to site.com/login
+2. Add wrong / random user &amp; pass
+3 Observe if user can login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to emag.ro
+2. Click on the search bar
+3. Partially write a word
+4. Observe what happens </t>
+  </si>
+  <si>
+    <t>1. Go to emag.ro
+2. Click on the search bar
+3. Input the word
+4. Observe what happens</t>
+  </si>
+  <si>
+    <t>1. Login to the banking web app.
+2. Navigate to the account dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">site.com/login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. Add correct user/pass
+3. Observe if user can login</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,7 +541,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -300,56 +551,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9D9D9"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -539,28 +781,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.38"/>
-    <col customWidth="1" min="2" max="2" width="28.25"/>
-    <col customWidth="1" min="3" max="3" width="40.63"/>
-    <col customWidth="1" min="4" max="4" width="42.25"/>
-    <col customWidth="1" min="5" max="5" width="37.25"/>
-    <col customWidth="1" min="6" max="6" width="19.25"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="126" customWidth="1"/>
+    <col min="5" max="5" width="107.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,9 +825,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="38.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -589,303 +836,480 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="38.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="38.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="38.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10">
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51">
       <c r="A10" s="2">
-        <v>6.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="38.25">
       <c r="A11" s="2">
-        <v>7.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="63.75">
       <c r="A12" s="2">
-        <v>8.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51">
       <c r="A13" s="2">
-        <v>9.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25">
       <c r="A14" s="2">
-        <v>10.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
       <c r="A15" s="2">
-        <v>10.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.5">
       <c r="A16" s="2">
-        <v>11.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="51">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="63.75">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="51">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="38.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="38.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="38.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="63.75">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>